--- a/工作表格备注.xlsx
+++ b/工作表格备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22720" windowHeight="16780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28040" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,6 +30,14 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swift-搭建服务器尝试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerSignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -95,9 +103,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,17 +446,18 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="2" width="80" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="37" customHeight="1" thickBot="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +468,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" thickTop="1"/>
+    <row r="2" spans="1:3" ht="28" customHeight="1" thickTop="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
